--- a/excel-cleaning/inventory_copy.xlsx
+++ b/excel-cleaning/inventory_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenta0603/Documents/Self-learning/Excel Cleaning/data-cleaning-pipeline/excel-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62915B08-E842-F742-85BD-9E25952E5EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89CF1C-6653-B648-B8AD-9329A4A79E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="29140" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory Page 1" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -760,7 +760,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -821,23 +821,23 @@
         <v>44635</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H103" si="0">C5+D5</f>
+        <f>C5+D5</f>
         <v>220</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f t="shared" ref="I5:I103" si="1">IF(C5&gt;0, "In Stock","Out of Stock")</f>
+        <f t="shared" ref="I5:I103" si="0">IF(C5&gt;0, "In Stock","Out of Stock")</f>
         <v>In Stock</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f t="shared" ref="J5:J103" si="2">IF(H5&gt;E5, "Overstocked"," ")</f>
+        <f t="shared" ref="J5:J103" si="1">IF(H5&gt;E5, "Overstocked"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:K103" si="3">D5*F5</f>
+        <f t="shared" ref="K5:K103" si="2">D5*F5</f>
         <v>244.4</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" ref="L5:L103" si="4">H5*F5</f>
+        <f t="shared" ref="L5:L103" si="3">H5*F5</f>
         <v>2688.4</v>
       </c>
     </row>
@@ -862,23 +862,23 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H7" si="4">C6+D6</f>
         <v>30</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In Stock</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Overstocked</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>66.599999999999994</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>99.9</v>
       </c>
     </row>
@@ -893,23 +893,23 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -924,23 +924,23 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
+        <f>C8+D8</f>
         <v>1</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In Stock</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Overstocked</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -953,23 +953,23 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H5:H103" si="5">C9+D9</f>
         <v>0</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -982,23 +982,23 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1011,23 +1011,23 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1040,23 +1040,23 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1069,23 +1069,23 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1098,23 +1098,23 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1127,23 +1127,23 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1156,23 +1156,23 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1185,23 +1185,23 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1214,23 +1214,23 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1243,23 +1243,23 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1272,23 +1272,23 @@
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1301,23 +1301,23 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1330,23 +1330,23 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1359,23 +1359,23 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1388,23 +1388,23 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1417,23 +1417,23 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1446,23 +1446,23 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1475,23 +1475,23 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1504,23 +1504,23 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1533,23 +1533,23 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1562,23 +1562,23 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1591,23 +1591,23 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1620,23 +1620,23 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1649,23 +1649,23 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1678,23 +1678,23 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
       <c r="H34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1707,23 +1707,23 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
       <c r="H35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1736,23 +1736,23 @@
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1765,23 +1765,23 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1794,23 +1794,23 @@
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1823,23 +1823,23 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1852,23 +1852,23 @@
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1881,23 +1881,23 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1910,23 +1910,23 @@
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1939,23 +1939,23 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1968,23 +1968,23 @@
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1997,23 +1997,23 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2026,23 +2026,23 @@
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2055,23 +2055,23 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2084,23 +2084,23 @@
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2113,23 +2113,23 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2142,23 +2142,23 @@
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2171,23 +2171,23 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2200,23 +2200,23 @@
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2229,23 +2229,23 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2258,23 +2258,23 @@
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2287,23 +2287,23 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2316,23 +2316,23 @@
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2345,23 +2345,23 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
       <c r="H57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2374,23 +2374,23 @@
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
       <c r="H58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2403,23 +2403,23 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
       <c r="H59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2432,23 +2432,23 @@
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2461,23 +2461,23 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2490,23 +2490,23 @@
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
       <c r="H62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2519,23 +2519,23 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
       <c r="H63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,23 +2548,23 @@
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2577,23 +2577,23 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J65" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2606,23 +2606,23 @@
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2635,23 +2635,23 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I67" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2664,23 +2664,23 @@
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
       <c r="H68" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I68" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2693,23 +2693,23 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I69" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L69" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2722,23 +2722,23 @@
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I70" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L70" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2751,23 +2751,23 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
       <c r="H71" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L71" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2780,23 +2780,23 @@
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I72" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L72" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2809,23 +2809,23 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I73" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2838,23 +2838,23 @@
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I74" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2867,23 +2867,23 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I75" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L75" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2896,23 +2896,23 @@
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
       <c r="H76" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I76" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2925,23 +2925,23 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I77" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J77" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L77" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2954,23 +2954,23 @@
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I78" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J78" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2983,23 +2983,23 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I79" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J79" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3012,23 +3012,23 @@
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I80" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L80" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3041,23 +3041,23 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I81" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J81" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L81" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3070,23 +3070,23 @@
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I82" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L82" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3099,23 +3099,23 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I83" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3128,23 +3128,23 @@
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="H84" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I84" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L84" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3157,23 +3157,23 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="H85" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I85" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L85" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3186,23 +3186,23 @@
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="H86" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I86" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J86" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3215,23 +3215,23 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="H87" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I87" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J87" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3244,23 +3244,23 @@
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I88" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J88" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L88" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3273,23 +3273,23 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
       <c r="H89" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I89" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J89" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3302,23 +3302,23 @@
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="H90" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I90" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J90" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L90" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3331,23 +3331,23 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="H91" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I91" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J91" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L91" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3360,23 +3360,23 @@
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
       <c r="H92" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I92" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J92" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3389,23 +3389,23 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
       <c r="H93" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I93" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J93" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L93" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3418,23 +3418,23 @@
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
       <c r="H94" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I94" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K94" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L94" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3447,23 +3447,23 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
       <c r="H95" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I95" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J95" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K95" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L95" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3476,23 +3476,23 @@
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
       <c r="H96" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I96" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J96" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L96" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3505,23 +3505,23 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
       <c r="H97" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I97" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J97" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K97" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L97" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3534,23 +3534,23 @@
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
       <c r="H98" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I98" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J98" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3563,23 +3563,23 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="H99" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I99" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J99" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L99" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3592,23 +3592,23 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="H100" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I100" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J100" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L100" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3621,23 +3621,23 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
       <c r="H101" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I101" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K101" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L101" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3650,23 +3650,23 @@
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I102" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J102" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K102" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L102" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3679,23 +3679,23 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
       <c r="H103" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I103" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Out of Stock</v>
       </c>
       <c r="J103" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L103" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
